--- a/doc/excel/党建/[sample_member_inSchool]党员信息（校内人员）录入样表.xlsx
+++ b/doc/excel/党建/[sample_member_inSchool]党员信息（校内人员）录入样表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421CBF95-990F-429E-B487-6330F4D9F4A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="26670" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="26670" windowHeight="13245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{895F47D2-D887-4B5B-AF86-D4C942B61FEA}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{9DC9F6FA-35E5-4D32-BF80-97F081D43AA8}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{0CE49EE4-90B2-44DE-A68A-01C462CB47EB}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,8 +221,8 @@
         <scheme val="minor"/>
       </rPr>
       <t>。
-4、分党委编码和党支部编码，请与组工系统内的编码保持一致。在组工系统内，组织部管理员可以添加分党委，分党委管理员及支部管理员可以添加党支部。
-5、导入前请删除第一行样表数据和此注意事项，然后提交给组织部党建管理员进行导入操作。</t>
+4、分党委编码和党支部编码，请与组工系统内的编码保持一致。
+5、导入前请删除第一行样表数据和此注意事项。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,7 +230,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -367,7 +366,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -678,12 +677,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G25" sqref="G25"/>
+      <selection pane="topRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1346,10 +1345,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="SD22:SD23 ABZ22:ABZ23 ALV22:ALV23 AVR22:AVR23 BFN22:BFN23 BPJ22:BPJ23 BZF22:BZF23 CJB22:CJB23 CSX22:CSX23 DCT22:DCT23 DMP22:DMP23 DWL22:DWL23 EGH22:EGH23 EQD22:EQD23 EZZ22:EZZ23 FJV22:FJV23 FTR22:FTR23 GDN22:GDN23 GNJ22:GNJ23 GXF22:GXF23 HHB22:HHB23 HQX22:HQX23 IAT22:IAT23 IKP22:IKP23 IUL22:IUL23 JEH22:JEH23 JOD22:JOD23 JXZ22:JXZ23 KHV22:KHV23 KRR22:KRR23 LBN22:LBN23 LLJ22:LLJ23 LVF22:LVF23 MFB22:MFB23 MOX22:MOX23 MYT22:MYT23 NIP22:NIP23 NSL22:NSL23 OCH22:OCH23 OMD22:OMD23 OVZ22:OVZ23 PFV22:PFV23 PPR22:PPR23 PZN22:PZN23 QJJ22:QJJ23 QTF22:QTF23 RDB22:RDB23 RMX22:RMX23 RWT22:RWT23 SGP22:SGP23 SQL22:SQL23 TAH22:TAH23 TKD22:TKD23 TTZ22:TTZ23 UDV22:UDV23 UNR22:UNR23 UXN22:UXN23 VHJ22:VHJ23 VRF22:VRF23 WBB22:WBB23 WKX22:WKX23 WUT22:WUT23 IH22:IH23 WUT2:WUT20 IH2:IH20 SD2:SD20 ABZ2:ABZ20 ALV2:ALV20 AVR2:AVR20 BFN2:BFN20 BPJ2:BPJ20 BZF2:BZF20 CJB2:CJB20 CSX2:CSX20 DCT2:DCT20 DMP2:DMP20 DWL2:DWL20 EGH2:EGH20 EQD2:EQD20 EZZ2:EZZ20 FJV2:FJV20 FTR2:FTR20 GDN2:GDN20 GNJ2:GNJ20 GXF2:GXF20 HHB2:HHB20 HQX2:HQX20 IAT2:IAT20 IKP2:IKP20 IUL2:IUL20 JEH2:JEH20 JOD2:JOD20 JXZ2:JXZ20 KHV2:KHV20 KRR2:KRR20 LBN2:LBN20 LLJ2:LLJ20 LVF2:LVF20 MFB2:MFB20 MOX2:MOX20 MYT2:MYT20 NIP2:NIP20 NSL2:NSL20 OCH2:OCH20 OMD2:OMD20 OVZ2:OVZ20 PFV2:PFV20 PPR2:PPR20 PZN2:PZN20 QJJ2:QJJ20 QTF2:QTF20 RDB2:RDB20 RMX2:RMX20 RWT2:RWT20 SGP2:SGP20 SQL2:SQL20 TAH2:TAH20 TKD2:TKD20 TTZ2:TTZ20 UDV2:UDV20 UNR2:UNR20 UXN2:UXN20 VHJ2:VHJ20 VRF2:VRF20 WBB2:WBB20 WKX2:WKX20" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="SD22:SD23 ABZ22:ABZ23 ALV22:ALV23 AVR22:AVR23 BFN22:BFN23 BPJ22:BPJ23 BZF22:BZF23 CJB22:CJB23 CSX22:CSX23 DCT22:DCT23 DMP22:DMP23 DWL22:DWL23 EGH22:EGH23 EQD22:EQD23 EZZ22:EZZ23 FJV22:FJV23 FTR22:FTR23 GDN22:GDN23 GNJ22:GNJ23 GXF22:GXF23 HHB22:HHB23 HQX22:HQX23 IAT22:IAT23 IKP22:IKP23 IUL22:IUL23 JEH22:JEH23 JOD22:JOD23 JXZ22:JXZ23 KHV22:KHV23 KRR22:KRR23 LBN22:LBN23 LLJ22:LLJ23 LVF22:LVF23 MFB22:MFB23 MOX22:MOX23 MYT22:MYT23 NIP22:NIP23 NSL22:NSL23 OCH22:OCH23 OMD22:OMD23 OVZ22:OVZ23 PFV22:PFV23 PPR22:PPR23 PZN22:PZN23 QJJ22:QJJ23 QTF22:QTF23 RDB22:RDB23 RMX22:RMX23 RWT22:RWT23 SGP22:SGP23 SQL22:SQL23 TAH22:TAH23 TKD22:TKD23 TTZ22:TTZ23 UDV22:UDV23 UNR22:UNR23 UXN22:UXN23 VHJ22:VHJ23 VRF22:VRF23 WBB22:WBB23 WKX22:WKX23 WUT22:WUT23 IH22:IH23 WUT2:WUT20 IH2:IH20 SD2:SD20 ABZ2:ABZ20 ALV2:ALV20 AVR2:AVR20 BFN2:BFN20 BPJ2:BPJ20 BZF2:BZF20 CJB2:CJB20 CSX2:CSX20 DCT2:DCT20 DMP2:DMP20 DWL2:DWL20 EGH2:EGH20 EQD2:EQD20 EZZ2:EZZ20 FJV2:FJV20 FTR2:FTR20 GDN2:GDN20 GNJ2:GNJ20 GXF2:GXF20 HHB2:HHB20 HQX2:HQX20 IAT2:IAT20 IKP2:IKP20 IUL2:IUL20 JEH2:JEH20 JOD2:JOD20 JXZ2:JXZ20 KHV2:KHV20 KRR2:KRR20 LBN2:LBN20 LLJ2:LLJ20 LVF2:LVF20 MFB2:MFB20 MOX2:MOX20 MYT2:MYT20 NIP2:NIP20 NSL2:NSL20 OCH2:OCH20 OMD2:OMD20 OVZ2:OVZ20 PFV2:PFV20 PPR2:PPR20 PZN2:PZN20 QJJ2:QJJ20 QTF2:QTF20 RDB2:RDB20 RMX2:RMX20 RWT2:RWT20 SGP2:SGP20 SQL2:SQL20 TAH2:TAH20 TKD2:TKD20 TTZ2:TTZ20 UDV2:UDV20 UNR2:UNR20 UXN2:UXN20 VHJ2:VHJ20 VRF2:VRF20 WBB2:WBB20 WKX2:WKX20">
       <formula1>"申请入党人员,入党积极分子,发展对象"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{927E56FF-5DB1-4539-A1E4-F7246BC7EF11}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"正式党员,预备党员"</formula1>
     </dataValidation>
   </dataValidations>
